--- a/XCustPr/doc/60-10-31/po001_validate.xlsx
+++ b/XCustPr/doc/60-10-31/po001_validate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_ICE_2016\RD\00_PMO_Templates (13-May)\70-Customization\71-Functional Spec\SPEC\PO001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\ice\XCustPr\XCustPr\doc\60-10-31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="validate" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>Error Event</t>
   </si>
@@ -414,16 +414,28 @@
 where organization_id = &amp;organization_id
 and attribute1 = &amp;linfix_store_code</t>
   </si>
+  <si>
+    <t>select secondary_inventory_name from XCUST_SUBINVENTORY_mst_TBL where organization_id = &amp;organization_id and attribute1 = &amp;linfix_store_code</t>
+  </si>
+  <si>
+    <t>script เรียบร้อย</t>
+  </si>
+  <si>
+    <t>script เรียบร้อย, ลง process เรียบร้อย</t>
+  </si>
+  <si>
+    <t>validate ไว้ ก่อนเข้า loop เพราะ check bu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -440,8 +452,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +481,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -568,17 +598,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -586,17 +613,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1008,29 +1050,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="42.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="42.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.09765625" style="12"/>
+    <col min="3" max="3" width="42.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1046,353 +1088,390 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="D11" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="E14" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="D16" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="15"/>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="11"/>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -1400,7 +1479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -1409,13 +1488,34 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
+  <mergeCells count="49">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
@@ -1432,32 +1532,12 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1472,9 +1552,9 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1580,7 +1660,7 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -1641,7 +1721,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1662,7 +1742,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1706,7 +1786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1720,9 +1800,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/XCustPr/doc/60-10-31/po001_validate.xlsx
+++ b/XCustPr/doc/60-10-31/po001_validate.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\ice\XCustPr\XCustPr\doc\60-10-31\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10290"/>
   </bookViews>
@@ -20,7 +15,7 @@
     <sheet name="BLANKET" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>Error Event</t>
   </si>
@@ -425,6 +420,9 @@
   </si>
   <si>
     <t>validate ไว้ ก่อนเข้า loop เพราะ check bu</t>
+  </si>
+  <si>
+    <t>script เรียบร้อย ต้องถาม</t>
   </si>
 </sst>
 </file>
@@ -607,21 +605,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -635,12 +623,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,7 +1040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,12 +1085,15 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1100,35 +1101,35 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1136,29 +1137,29 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="16"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="D11" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1166,95 +1167,95 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1262,14 +1263,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1280,14 +1281,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1298,14 +1299,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1313,14 +1314,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1328,104 +1329,104 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="19" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="10"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -1489,33 +1490,12 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
@@ -1532,12 +1512,33 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
